--- a/BSM-Option-Price.xlsx
+++ b/BSM-Option-Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B6678-BA7F-4EAB-A6F8-038AFAD1C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9A9FF-0347-4CA0-BDF3-47756E635608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="24510" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="European Options BSM" sheetId="1" r:id="rId1"/>
@@ -10574,7 +10574,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
